--- a/Files/locations_data.xlsx
+++ b/Files/locations_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="1301">
   <si>
     <t xml:space="preserve">address</t>
   </si>
@@ -1268,9 +1268,6 @@
   </si>
   <si>
     <t xml:space="preserve">Khamaria, Jabalpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gw</t>
   </si>
   <si>
     <t xml:space="preserve">Basavanagudi, Bengaluru, Karnataka 560004, India</t>
@@ -4033,23 +4030,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -4060,11 +4040,11 @@
   </sheetPr>
   <dimension ref="A1:E1230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1009" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1024" activeCellId="0" sqref="F1024"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A321" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E345" activeCellId="0" sqref="E345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1010" style="0" width="9.14"/>
   </cols>
@@ -9914,12 +9894,12 @@
         <v>99</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>12.94094</v>
@@ -9936,7 +9916,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>21.144528</v>
@@ -9953,7 +9933,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>23.344809</v>
@@ -9970,7 +9950,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>22.305556</v>
@@ -9987,7 +9967,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>22.706828</v>
@@ -10004,7 +9984,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>21.183</v>
@@ -10021,7 +10001,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>23.182</v>
@@ -10038,7 +10018,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>11.014131</v>
@@ -10055,7 +10035,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>31.6282</v>
@@ -10072,7 +10052,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>16.9915</v>
@@ -10089,7 +10069,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>23.025651</v>
@@ -10106,7 +10086,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>31.626</v>
@@ -10123,7 +10103,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>17.423122</v>
@@ -10140,7 +10120,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>23.177789</v>
@@ -10157,7 +10137,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>30.325565</v>
@@ -10174,7 +10154,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>12.9939</v>
@@ -10191,7 +10171,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>26.452105</v>
@@ -10208,7 +10188,7 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>26.309829</v>
@@ -10225,7 +10205,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>22.273456</v>
@@ -10242,7 +10222,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>27.175529</v>
@@ -10259,7 +10239,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>11.016101</v>
@@ -10276,7 +10256,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>18.982986</v>
@@ -10293,7 +10273,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>23.355708</v>
@@ -10310,7 +10290,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>23.831238</v>
@@ -10327,7 +10307,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>28.767888</v>
@@ -10344,7 +10324,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>13.051226</v>
@@ -10361,7 +10341,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>26.2785</v>
@@ -10378,7 +10358,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>26.448673</v>
@@ -10395,7 +10375,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>19.236703</v>
@@ -10412,7 +10392,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>25.590501</v>
@@ -10429,7 +10409,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>31.102842</v>
@@ -10446,7 +10426,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>22.269012</v>
@@ -10463,7 +10443,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>31.6145</v>
@@ -10480,7 +10460,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>26.92084</v>
@@ -10497,7 +10477,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>20.008901</v>
@@ -10514,7 +10494,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>23.021804</v>
@@ -10531,7 +10511,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>21.24789</v>
@@ -10548,7 +10528,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>26.226026</v>
@@ -10565,7 +10545,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>28.642292</v>
@@ -10582,7 +10562,7 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>31.104952</v>
@@ -10599,7 +10579,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>19.1004</v>
@@ -10616,7 +10596,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>12.311284</v>
@@ -10633,7 +10613,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>22.264567</v>
@@ -10650,7 +10630,7 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>12.93523</v>
@@ -10667,7 +10647,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>23.185</v>
@@ -10684,7 +10664,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>20.274621</v>
@@ -10701,7 +10681,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>21.145706</v>
@@ -10718,7 +10698,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>28.61296</v>
@@ -10735,7 +10715,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>31.6215</v>
@@ -10752,7 +10732,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>17.384094</v>
@@ -10769,7 +10749,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>28.649077</v>
@@ -10786,7 +10766,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>19.870123</v>
@@ -10803,7 +10783,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>26.211646</v>
@@ -10820,7 +10800,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>22.495</v>
@@ -10837,7 +10817,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>20.290227</v>
@@ -10854,7 +10834,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>23.363474</v>
@@ -10871,7 +10851,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>23.819458</v>
@@ -10888,7 +10868,7 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>30.3225</v>
@@ -10905,7 +10885,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>23.231609</v>
@@ -10922,7 +10902,7 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>12.975099</v>
@@ -10939,7 +10919,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>26.275121</v>
@@ -10956,7 +10936,7 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>11.018101</v>
@@ -10973,7 +10953,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>22.72171</v>
@@ -10990,7 +10970,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>24.805682</v>
@@ -11007,7 +10987,7 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>22.586</v>
@@ -11024,7 +11004,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>30.315</v>
@@ -11041,7 +11021,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>24.808654</v>
@@ -11058,7 +11038,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>23.259302</v>
@@ -11075,7 +11055,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>23.180012</v>
@@ -11092,7 +11072,7 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>19.868234</v>
@@ -11109,7 +11089,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>23.19</v>
@@ -11126,7 +11106,7 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>26.849327</v>
@@ -11143,7 +11123,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>30.8985</v>
@@ -11160,7 +11140,7 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>19.865432</v>
@@ -11177,7 +11157,7 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>28.656473</v>
@@ -11194,7 +11174,7 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>22.309228</v>
@@ -11211,7 +11191,7 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>23.029432</v>
@@ -11228,7 +11208,7 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>25.661876</v>
@@ -11245,7 +11225,7 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>28.553247</v>
@@ -11262,7 +11242,7 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>16.992</v>
@@ -11279,7 +11259,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>19.003795</v>
@@ -11296,7 +11276,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>19.229312</v>
@@ -11313,7 +11293,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>13.072209</v>
@@ -11330,7 +11310,7 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>22.576</v>
@@ -11347,7 +11327,7 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>23.764472</v>
@@ -11364,7 +11344,7 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>28.663219</v>
@@ -11381,7 +11361,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>25.57721</v>
@@ -11398,7 +11378,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>23.261245</v>
@@ -11415,7 +11395,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>26.825989</v>
@@ -11432,7 +11412,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>23.1865</v>
@@ -11449,7 +11429,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>19.233014</v>
@@ -11466,7 +11446,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>25.678563</v>
@@ -11483,7 +11463,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>23.165432</v>
@@ -11500,7 +11480,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>28.403148</v>
@@ -11517,7 +11497,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>13.050104</v>
@@ -11534,7 +11514,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>30.89</v>
@@ -11551,7 +11531,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>19.242679</v>
@@ -11568,7 +11548,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>21.243456</v>
@@ -11585,7 +11565,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>16.515834</v>
@@ -11602,7 +11582,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>27.330144</v>
@@ -11619,7 +11599,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>26.29863</v>
@@ -11636,7 +11616,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>23.182234</v>
@@ -11653,7 +11633,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>21.204</v>
@@ -11670,7 +11650,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>30.3118</v>
@@ -11687,7 +11667,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>13.140506</v>
@@ -11704,7 +11684,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>28.643356</v>
@@ -11721,7 +11701,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>25.670423</v>
@@ -11738,7 +11718,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>26.447457</v>
@@ -11755,7 +11735,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>28.650679</v>
@@ -11772,7 +11752,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>26.82016</v>
@@ -11789,7 +11769,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>28.4012</v>
@@ -11806,7 +11786,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>22.258901</v>
@@ -11823,7 +11803,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>12.97194</v>
@@ -11840,7 +11820,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>16.511936</v>
@@ -11857,7 +11837,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>26.452762</v>
@@ -11874,7 +11854,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>18.9924</v>
@@ -11891,7 +11871,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>32.71286</v>
@@ -11908,7 +11888,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>31.093682</v>
@@ -11925,7 +11905,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>12.9565</v>
@@ -11942,7 +11922,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>22.255678</v>
@@ -11959,7 +11939,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>26.732569</v>
@@ -11976,7 +11956,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>26.723159</v>
@@ -11993,7 +11973,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>30.8955</v>
@@ -12010,7 +11990,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>11.016123</v>
@@ -12027,7 +12007,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>23.032387</v>
@@ -12044,7 +12024,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>22.261234</v>
@@ -12061,7 +12041,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>24.825938</v>
@@ -12078,7 +12058,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>22.548</v>
@@ -12095,7 +12075,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>11.017121</v>
@@ -12112,7 +12092,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>21.146185</v>
@@ -12129,7 +12109,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>31.10578</v>
@@ -12146,7 +12126,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>22.313611</v>
@@ -12163,7 +12143,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>21.231234</v>
@@ -12180,7 +12160,7 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>12.305905</v>
@@ -12197,7 +12177,7 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>19.876456</v>
@@ -12214,7 +12194,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>25.674017</v>
@@ -12231,7 +12211,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>23.031014</v>
@@ -12248,7 +12228,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>21.191</v>
@@ -12265,7 +12245,7 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>13.058671</v>
@@ -12282,7 +12262,7 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>31.106667</v>
@@ -12299,7 +12279,7 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>11.018171</v>
@@ -12316,7 +12296,7 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>26.739872</v>
@@ -12333,7 +12313,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>31.10622</v>
@@ -12350,7 +12330,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>16.9945</v>
@@ -12367,7 +12347,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>20.290358</v>
@@ -12384,7 +12364,7 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>19.882345</v>
@@ -12401,7 +12381,7 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>26.738502</v>
@@ -12418,7 +12398,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>30.3215</v>
@@ -12435,7 +12415,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>16.520827</v>
@@ -12452,7 +12432,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>21.2075</v>
@@ -12469,7 +12449,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>28.017859</v>
@@ -12486,7 +12466,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>20.296568</v>
@@ -12503,7 +12483,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>12.309508</v>
@@ -12520,7 +12500,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>18.510119</v>
@@ -12537,7 +12517,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>31.619</v>
@@ -12554,7 +12534,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>18.523146</v>
@@ -12571,7 +12551,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>22.589</v>
@@ -12588,7 +12568,7 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>21.248953</v>
@@ -12605,7 +12585,7 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>23.253681</v>
@@ -12622,7 +12602,7 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>22.272345</v>
@@ -12639,7 +12619,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>27.168805</v>
@@ -12656,7 +12636,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>23.832458</v>
@@ -12673,7 +12653,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>16.9925</v>
@@ -12690,7 +12670,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>24.818838</v>
@@ -12707,7 +12687,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>23.34496</v>
@@ -12724,7 +12704,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>26.870271</v>
@@ -12741,7 +12721,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>23.362498</v>
@@ -12758,7 +12738,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>23.267234</v>
@@ -12775,7 +12755,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>30.332</v>
@@ -12792,7 +12772,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>31.6198</v>
@@ -12809,7 +12789,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>25.572184</v>
@@ -12826,7 +12806,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>22.317913</v>
@@ -12843,7 +12823,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>21.252345</v>
@@ -12860,7 +12840,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>24.81429</v>
@@ -12877,7 +12857,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>25.674286</v>
@@ -12894,7 +12874,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>23.193</v>
@@ -12911,7 +12891,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>26.292862</v>
@@ -12928,7 +12908,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>20.292318</v>
@@ -12945,7 +12925,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>23.168</v>
@@ -12962,7 +12942,7 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>22.265678</v>
@@ -12979,7 +12959,7 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>32.72381</v>
@@ -12996,7 +12976,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>22.569</v>
@@ -13013,7 +12993,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>21.208</v>
@@ -13030,7 +13010,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>27.333512</v>
@@ -13047,7 +13027,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>21.203</v>
@@ -13064,7 +13044,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>22.717518</v>
@@ -13081,7 +13061,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>28.645438</v>
@@ -13098,7 +13078,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>28.019113</v>
@@ -13115,7 +13095,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>11.020909</v>
@@ -13132,7 +13112,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>28.674384</v>
@@ -13149,7 +13129,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>23.237804</v>
@@ -13166,7 +13146,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>30.8875</v>
@@ -13183,7 +13163,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>12.303567</v>
@@ -13200,7 +13180,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>22.309254</v>
@@ -13217,7 +13197,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>26.217876</v>
@@ -13234,7 +13214,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>16.9965</v>
@@ -13251,7 +13231,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>24.817903</v>
@@ -13268,7 +13248,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>28.60057</v>
@@ -13285,7 +13265,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>28.5244</v>
@@ -13302,7 +13282,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>16.506174</v>
@@ -13319,7 +13299,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>24.824018</v>
@@ -13336,7 +13316,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>25.679345</v>
@@ -13353,7 +13333,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>28.3995</v>
@@ -13370,7 +13350,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>23.832093</v>
@@ -13387,7 +13367,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>26.293327</v>
@@ -13404,7 +13384,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>26.29581</v>
@@ -13421,7 +13401,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>30.887</v>
@@ -13438,7 +13418,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>21.14466</v>
@@ -13455,7 +13435,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>25.665578</v>
@@ -13472,7 +13452,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>19.244774</v>
@@ -13489,7 +13469,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>21.237564</v>
@@ -13506,7 +13486,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>30.916</v>
@@ -13523,7 +13503,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>32.74387</v>
@@ -13540,7 +13520,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>22.715314</v>
@@ -13557,7 +13537,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>22.720362</v>
@@ -13574,7 +13554,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>28.622417</v>
@@ -13591,7 +13571,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>22.31131</v>
@@ -13608,7 +13588,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>23.265142</v>
@@ -13625,7 +13605,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>18.521374</v>
@@ -13642,7 +13622,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>22.718785</v>
@@ -13659,7 +13639,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>31.08798</v>
@@ -13676,7 +13656,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>22.572646</v>
@@ -13693,7 +13673,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>25.578026</v>
@@ -13710,7 +13690,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>26.867457</v>
@@ -13727,7 +13707,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>17.346998</v>
@@ -13744,7 +13724,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>23.83554</v>
@@ -13761,7 +13741,7 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>27.197849</v>
@@ -13778,7 +13758,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>26.900675</v>
@@ -13795,7 +13775,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>26.283929</v>
@@ -13812,7 +13792,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>26.449925</v>
@@ -13829,7 +13809,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>22.305278</v>
@@ -13846,7 +13826,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>30.903</v>
@@ -13863,7 +13843,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>27.335649</v>
@@ -13880,7 +13860,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>21.235678</v>
@@ -13897,7 +13877,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>30.331</v>
@@ -13914,7 +13894,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>19.243085</v>
@@ -13931,7 +13911,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>16.514052</v>
@@ -13948,7 +13928,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>26.856088</v>
@@ -13965,7 +13945,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>25.576045</v>
@@ -13982,7 +13962,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>26.915458</v>
@@ -13999,7 +13979,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>24.799116</v>
@@ -14016,7 +13996,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>28.405</v>
@@ -14033,7 +14013,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>16.991</v>
@@ -14050,7 +14030,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B588" s="0" t="n">
         <v>19.236109</v>
@@ -14067,7 +14047,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>23.059239</v>
@@ -14084,7 +14064,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>21.168</v>
@@ -14101,7 +14081,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>31.6205</v>
@@ -14118,7 +14098,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>31.105277</v>
@@ -14135,7 +14115,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>23.838452</v>
@@ -14152,7 +14132,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>18.520815</v>
@@ -14169,7 +14149,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>26.284758</v>
@@ -14186,7 +14166,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>27.175067</v>
@@ -14203,7 +14183,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>20.012345</v>
@@ -14220,7 +14200,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>11.014789</v>
@@ -14254,7 +14234,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>26.203725</v>
@@ -14271,7 +14251,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>23.031862</v>
@@ -14288,7 +14268,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>17.385641</v>
@@ -14305,7 +14285,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>22.271234</v>
@@ -14322,7 +14302,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>19.220042</v>
@@ -14339,7 +14319,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>27.176702</v>
@@ -14356,7 +14336,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>23.174</v>
@@ -14373,7 +14353,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>12.8872</v>
@@ -14390,7 +14370,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>26.452908</v>
@@ -14407,7 +14387,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>21.22789</v>
@@ -14424,7 +14404,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>25.573112</v>
@@ -14441,7 +14421,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>26.232676</v>
@@ -14458,7 +14438,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>31.634308</v>
@@ -14475,7 +14455,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>28.4045</v>
@@ -14492,7 +14472,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>26.219334</v>
@@ -14509,7 +14489,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>22.297314</v>
@@ -14526,7 +14506,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>19.879012</v>
@@ -14543,7 +14523,7 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>28.398</v>
@@ -14560,7 +14540,7 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>26.451284</v>
@@ -14577,7 +14557,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>20.2962</v>
@@ -14594,7 +14574,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>19.87789</v>
@@ -14611,7 +14591,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>21.247891</v>
@@ -14628,7 +14608,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>16.9985</v>
@@ -14645,7 +14625,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>17.360589</v>
@@ -14662,7 +14642,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>31.113655</v>
@@ -14679,7 +14659,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>26.843032</v>
@@ -14696,7 +14676,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>26.721856</v>
@@ -14713,7 +14693,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>25.574839</v>
@@ -14730,7 +14710,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>30.307</v>
@@ -14747,7 +14727,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>27.175015</v>
@@ -14764,7 +14744,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>12.305306</v>
@@ -14781,7 +14761,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>27.329046</v>
@@ -14798,7 +14778,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>20.104567</v>
@@ -14815,7 +14795,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>22.263456</v>
@@ -14832,7 +14812,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>22.309129</v>
@@ -14849,7 +14829,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>16.997</v>
@@ -14866,7 +14846,7 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>22.260123</v>
@@ -14883,7 +14863,7 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>17.439616</v>
@@ -14900,7 +14880,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>28.4</v>
@@ -14917,7 +14897,7 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>31.6207</v>
@@ -14934,7 +14914,7 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>25.575454</v>
@@ -14951,7 +14931,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>22.527</v>
@@ -14968,7 +14948,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>26.909146</v>
@@ -14985,7 +14965,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>22.311456</v>
@@ -15002,7 +14982,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>18.966634</v>
@@ -15019,7 +14999,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>22.309123</v>
@@ -15036,7 +15016,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>21.2045</v>
@@ -15053,7 +15033,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>26.450982</v>
@@ -15070,7 +15050,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>13.083694</v>
@@ -15087,7 +15067,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>23.188</v>
@@ -15104,7 +15084,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>12.8003</v>
@@ -15121,7 +15101,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>23.37005</v>
@@ -15138,7 +15118,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>22.516</v>
@@ -15155,7 +15135,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>22.309167</v>
@@ -15172,7 +15152,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>16.993</v>
@@ -15189,7 +15169,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>23.171123</v>
@@ -15206,7 +15186,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>26.716413</v>
@@ -15223,7 +15203,7 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>28.656159</v>
@@ -15240,7 +15220,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>26.296945</v>
@@ -15257,7 +15237,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>30.891</v>
@@ -15274,7 +15254,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>23.185567</v>
@@ -15291,7 +15271,7 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>27.183882</v>
@@ -15308,7 +15288,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>27.3316</v>
@@ -15325,7 +15305,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>11.001812</v>
@@ -15342,7 +15322,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B664" s="0" t="n">
         <v>16.51897</v>
@@ -15359,7 +15339,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>23.1775</v>
@@ -15376,7 +15356,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>21.238091</v>
@@ -15393,7 +15373,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>11.019141</v>
@@ -15410,7 +15390,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>16.516188</v>
@@ -15427,7 +15407,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>17.241411</v>
@@ -15444,7 +15424,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>23.1825</v>
@@ -15461,7 +15441,7 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>26.855842</v>
@@ -15478,7 +15458,7 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>26.922699</v>
@@ -15495,7 +15475,7 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>24.818306</v>
@@ -15512,7 +15492,7 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>26.729943</v>
@@ -15529,7 +15509,7 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>19.246351</v>
@@ -15546,7 +15526,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>28.528485</v>
@@ -15563,7 +15543,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>21.211</v>
@@ -15580,7 +15560,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>18.943238</v>
@@ -15597,7 +15577,7 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>21.12721</v>
@@ -15614,7 +15594,7 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>26.72644</v>
@@ -15631,7 +15611,7 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>20.01789</v>
@@ -15648,7 +15628,7 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>12.298511</v>
@@ -15665,7 +15645,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>12.973889</v>
@@ -15682,7 +15662,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>26.221789</v>
@@ -15699,7 +15679,7 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>28.018652</v>
@@ -15716,7 +15696,7 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>23.063503</v>
@@ -15733,7 +15713,7 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>30.8905</v>
@@ -15750,7 +15730,7 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>24.826834</v>
@@ -15767,7 +15747,7 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>28.028934</v>
@@ -15784,7 +15764,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>24.832508</v>
@@ -15801,7 +15781,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B691" s="0" t="n">
         <v>21.1845</v>
@@ -15818,7 +15798,7 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>30.9</v>
@@ -15835,7 +15815,7 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>16.530095</v>
@@ -15852,7 +15832,7 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>30.3172</v>
@@ -15869,7 +15849,7 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>23.18</v>
@@ -15886,7 +15866,7 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>22.30705</v>
@@ -15903,7 +15883,7 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>27.190621</v>
@@ -15920,7 +15900,7 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>22.561</v>
@@ -15937,7 +15917,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>12.318473</v>
@@ -15954,7 +15934,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>18.52043</v>
@@ -15971,7 +15951,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>17.361611</v>
@@ -15988,7 +15968,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>19.239596</v>
@@ -16005,7 +15985,7 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>20.2811</v>
@@ -16022,7 +16002,7 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>18.975023</v>
@@ -16039,7 +16019,7 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>26.447216</v>
@@ -16056,7 +16036,7 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>23.179901</v>
@@ -16073,7 +16053,7 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>19.065835</v>
@@ -16090,7 +16070,7 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>18.511798</v>
@@ -16107,7 +16087,7 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>18.528037</v>
@@ -16124,7 +16104,7 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B710" s="0" t="n">
         <v>28.017933</v>
@@ -16141,7 +16121,7 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>20.260648</v>
@@ -16158,7 +16138,7 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>28.553501</v>
@@ -16175,7 +16155,7 @@
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>26.293089</v>
@@ -16192,7 +16172,7 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>23.176678</v>
@@ -16209,7 +16189,7 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>28.4028</v>
@@ -16226,7 +16206,7 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>28.613895</v>
@@ -16243,7 +16223,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>26.447205</v>
@@ -16260,7 +16240,7 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>20.293917</v>
@@ -16277,7 +16257,7 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>16.9955</v>
@@ -16294,7 +16274,7 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>23.73153</v>
@@ -16311,7 +16291,7 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>27.183785</v>
@@ -16328,7 +16308,7 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>18.521216</v>
@@ -16345,7 +16325,7 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>26.218329</v>
@@ -16362,7 +16342,7 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>25.571324</v>
@@ -16379,7 +16359,7 @@
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>30.8925</v>
@@ -16396,7 +16376,7 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>20.011234</v>
@@ -16413,7 +16393,7 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>22.317514</v>
@@ -16430,7 +16410,7 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>21.1945</v>
@@ -16447,7 +16427,7 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>21.149813</v>
@@ -16464,7 +16444,7 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>28.4005</v>
@@ -16481,7 +16461,7 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>21.2045</v>
@@ -16498,7 +16478,7 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B732" s="0" t="n">
         <v>12.316498</v>
@@ -16515,7 +16495,7 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B733" s="0" t="n">
         <v>28.416</v>
@@ -16532,7 +16512,7 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B734" s="0" t="n">
         <v>16.996</v>
@@ -16549,7 +16529,7 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B735" s="0" t="n">
         <v>20.266512</v>
@@ -16566,7 +16546,7 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B736" s="0" t="n">
         <v>26.733543</v>
@@ -16583,7 +16563,7 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B737" s="0" t="n">
         <v>23.184456</v>
@@ -16600,7 +16580,7 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B738" s="0" t="n">
         <v>30.319</v>
@@ -16617,7 +16597,7 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B739" s="0" t="n">
         <v>22.289444</v>
@@ -16634,7 +16614,7 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B740" s="0" t="n">
         <v>22.736328</v>
@@ -16651,7 +16631,7 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B741" s="0" t="n">
         <v>23.181</v>
@@ -16668,7 +16648,7 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B742" s="0" t="n">
         <v>16.9935</v>
@@ -16685,7 +16665,7 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B743" s="0" t="n">
         <v>16.995</v>
@@ -16702,7 +16682,7 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B744" s="0" t="n">
         <v>26.839735</v>
@@ -16719,7 +16699,7 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B745" s="0" t="n">
         <v>19.11957</v>
@@ -16736,7 +16716,7 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B746" s="0" t="n">
         <v>23.029142</v>
@@ -16753,7 +16733,7 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>19.229056</v>
@@ -16770,7 +16750,7 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>24.786306</v>
@@ -16782,12 +16762,12 @@
         <v>171</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B749" s="0" t="n">
         <v>20.016789</v>
@@ -16804,7 +16784,7 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B750" s="0" t="n">
         <v>19.078545</v>
@@ -16821,7 +16801,7 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B751" s="0" t="n">
         <v>16.511066</v>
@@ -16838,7 +16818,7 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B752" s="0" t="n">
         <v>22.253456</v>
@@ -16855,7 +16835,7 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>23.061522</v>
@@ -16872,7 +16852,7 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B754" s="0" t="n">
         <v>26.8381</v>
@@ -16889,7 +16869,7 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B755" s="0" t="n">
         <v>13.004676</v>
@@ -16906,7 +16886,7 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B756" s="0" t="n">
         <v>28.640075</v>
@@ -16923,7 +16903,7 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B757" s="0" t="n">
         <v>26.730174</v>
@@ -16940,7 +16920,7 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B758" s="0" t="n">
         <v>19.13139</v>
@@ -16957,7 +16937,7 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B759" s="0" t="n">
         <v>26.911814</v>
@@ -16974,7 +16954,7 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B760" s="0" t="n">
         <v>11.016606</v>
@@ -16991,7 +16971,7 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B761" s="0" t="n">
         <v>23.202</v>
@@ -17008,7 +16988,7 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B762" s="0" t="n">
         <v>26.451926</v>
@@ -17025,7 +17005,7 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B763" s="0" t="n">
         <v>22.605</v>
@@ -17042,7 +17022,7 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B764" s="0" t="n">
         <v>22.496</v>
@@ -17059,7 +17039,7 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B765" s="0" t="n">
         <v>19.873456</v>
@@ -17076,7 +17056,7 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B766" s="0" t="n">
         <v>28.684049</v>
@@ -17093,7 +17073,7 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B767" s="0" t="n">
         <v>25.674258</v>
@@ -17110,7 +17090,7 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B768" s="0" t="n">
         <v>26.218482</v>
@@ -17127,7 +17107,7 @@
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>12.916578</v>
@@ -17144,7 +17124,7 @@
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>27.181014</v>
@@ -17161,7 +17141,7 @@
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>28.3975</v>
@@ -17178,7 +17158,7 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B772" s="0" t="n">
         <v>21.198</v>
@@ -17195,7 +17175,7 @@
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B773" s="0" t="n">
         <v>11.017404</v>
@@ -17212,7 +17192,7 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B774" s="0" t="n">
         <v>18.526912</v>
@@ -17229,7 +17209,7 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B775" s="0" t="n">
         <v>30.309</v>
@@ -17246,7 +17226,7 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B776" s="0" t="n">
         <v>13.048614</v>
@@ -17263,7 +17243,7 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B777" s="0" t="n">
         <v>31.103654</v>
@@ -17280,7 +17260,7 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B778" s="0" t="n">
         <v>21.130432</v>
@@ -17297,7 +17277,7 @@
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B779" s="0" t="n">
         <v>27.195894</v>
@@ -17314,7 +17294,7 @@
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B780" s="0" t="n">
         <v>32.71983</v>
@@ -17331,7 +17311,7 @@
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B781" s="0" t="n">
         <v>27.151874</v>
@@ -17348,7 +17328,7 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B782" s="0" t="n">
         <v>27.331387</v>
@@ -17365,7 +17345,7 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B783" s="0" t="n">
         <v>27.336912</v>
@@ -17382,7 +17362,7 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B784" s="0" t="n">
         <v>17.434443</v>
@@ -17399,7 +17379,7 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B785" s="0" t="n">
         <v>24.818576</v>
@@ -17416,7 +17396,7 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B786" s="0" t="n">
         <v>23.035778</v>
@@ -17433,7 +17413,7 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B787" s="0" t="n">
         <v>26.826745</v>
@@ -17450,7 +17430,7 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>16.99025</v>
@@ -17467,7 +17447,7 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B789" s="0" t="n">
         <v>25.67114</v>
@@ -17484,7 +17464,7 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B790" s="0" t="n">
         <v>23.174456</v>
@@ -17501,7 +17481,7 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B791" s="0" t="n">
         <v>22.501</v>
@@ -17518,7 +17498,7 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B792" s="0" t="n">
         <v>26.917425</v>
@@ -17535,7 +17515,7 @@
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B793" s="0" t="n">
         <v>19.879876</v>
@@ -17552,7 +17532,7 @@
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B794" s="0" t="n">
         <v>32.71821</v>
@@ -17569,7 +17549,7 @@
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B795" s="0" t="n">
         <v>23.259875</v>
@@ -17586,7 +17566,7 @@
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B796" s="0" t="n">
         <v>26.734415</v>
@@ -17603,7 +17583,7 @@
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B797" s="0" t="n">
         <v>21.1965</v>
@@ -17620,7 +17600,7 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B798" s="0" t="n">
         <v>28.657828</v>
@@ -17637,7 +17617,7 @@
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B799" s="0" t="n">
         <v>31.105679</v>
@@ -17654,7 +17634,7 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B800" s="0" t="n">
         <v>21.238945</v>
@@ -17671,7 +17651,7 @@
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B801" s="0" t="n">
         <v>26.821547</v>
@@ -17688,7 +17668,7 @@
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B802" s="0" t="n">
         <v>13.036128</v>
@@ -17705,7 +17685,7 @@
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B803" s="0" t="n">
         <v>26.804134</v>
@@ -17722,7 +17702,7 @@
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B804" s="0" t="n">
         <v>17.425</v>
@@ -17739,7 +17719,7 @@
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B805" s="0" t="n">
         <v>26.220016</v>
@@ -17756,7 +17736,7 @@
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B806" s="0" t="n">
         <v>27.206458</v>
@@ -17773,7 +17753,7 @@
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B807" s="0" t="n">
         <v>20.283636</v>
@@ -17790,7 +17770,7 @@
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B808" s="0" t="n">
         <v>23.034743</v>
@@ -17807,7 +17787,7 @@
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B809" s="0" t="n">
         <v>24.809647</v>
@@ -17824,7 +17804,7 @@
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B810" s="0" t="n">
         <v>22.307387</v>
@@ -17841,7 +17821,7 @@
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B811" s="0" t="n">
         <v>19.868901</v>
@@ -17858,7 +17838,7 @@
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B812" s="0" t="n">
         <v>19.872456</v>
@@ -17875,7 +17855,7 @@
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B813" s="0" t="n">
         <v>19.14796</v>
@@ -17892,7 +17872,7 @@
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B814" s="0" t="n">
         <v>22.266789</v>
@@ -17909,7 +17889,7 @@
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B815" s="0" t="n">
         <v>23.254648</v>
@@ -17926,7 +17906,7 @@
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B816" s="0" t="n">
         <v>27.328888</v>
@@ -17943,7 +17923,7 @@
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B817" s="0" t="n">
         <v>30.9</v>
@@ -17960,7 +17940,7 @@
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B818" s="0" t="n">
         <v>25.572057</v>
@@ -17977,7 +17957,7 @@
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B819" s="0" t="n">
         <v>25.590935</v>
@@ -17994,7 +17974,7 @@
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B820" s="0" t="n">
         <v>12.986739</v>
@@ -18011,7 +17991,7 @@
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B821" s="0" t="n">
         <v>22.296018</v>
@@ -18028,7 +18008,7 @@
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B822" s="0" t="n">
         <v>26.297334</v>
@@ -18045,7 +18025,7 @@
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B823" s="0" t="n">
         <v>22.594689</v>
@@ -18062,7 +18042,7 @@
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B824" s="0" t="n">
         <v>31.6289</v>
@@ -18079,7 +18059,7 @@
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B825" s="0" t="n">
         <v>22.303145</v>
@@ -18096,7 +18076,7 @@
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B826" s="0" t="n">
         <v>24.812371</v>
@@ -18113,7 +18093,7 @@
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B827" s="0" t="n">
         <v>12.402568</v>
@@ -18130,7 +18110,7 @@
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B828" s="0" t="n">
         <v>26.232365</v>
@@ -18147,7 +18127,7 @@
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B829" s="0" t="n">
         <v>22.712852</v>
@@ -18164,7 +18144,7 @@
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B830" s="0" t="n">
         <v>22.3266</v>
@@ -18181,7 +18161,7 @@
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B831" s="0" t="n">
         <v>17.418423</v>
@@ -18198,7 +18178,7 @@
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B832" s="0" t="n">
         <v>17.380517</v>
@@ -18215,7 +18195,7 @@
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B833" s="0" t="n">
         <v>28.676569</v>
@@ -18232,7 +18212,7 @@
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B834" s="0" t="n">
         <v>18.515391</v>
@@ -18249,7 +18229,7 @@
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B835" s="0" t="n">
         <v>22.306111</v>
@@ -18266,7 +18246,7 @@
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B836" s="0" t="n">
         <v>23.263299</v>
@@ -18283,7 +18263,7 @@
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B837" s="0" t="n">
         <v>17.436583</v>
@@ -18300,7 +18280,7 @@
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B838" s="0" t="n">
         <v>21.236789</v>
@@ -18317,7 +18297,7 @@
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B839" s="0" t="n">
         <v>27.336726</v>
@@ -18334,7 +18314,7 @@
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B840" s="0" t="n">
         <v>23.258486</v>
@@ -18351,7 +18331,7 @@
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B841" s="0" t="n">
         <v>21.230987</v>
@@ -18368,7 +18348,7 @@
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B842" s="0" t="n">
         <v>31.104559</v>
@@ -18385,7 +18365,7 @@
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B843" s="0" t="n">
         <v>16.508757</v>
@@ -18402,7 +18382,7 @@
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B844" s="0" t="n">
         <v>30.909016</v>
@@ -18419,7 +18399,7 @@
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B845" s="0" t="n">
         <v>28.568737</v>
@@ -18436,7 +18416,7 @@
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B846" s="0" t="n">
         <v>30.8975</v>
@@ -18453,7 +18433,7 @@
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B847" s="0" t="n">
         <v>23.179</v>
@@ -18470,7 +18450,7 @@
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B848" s="0" t="n">
         <v>20.005678</v>
@@ -18487,7 +18467,7 @@
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B849" s="0" t="n">
         <v>12.318346</v>
@@ -18504,7 +18484,7 @@
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B850" s="0" t="n">
         <v>13.058227</v>
@@ -18521,7 +18501,7 @@
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B851" s="0" t="n">
         <v>24.000597</v>
@@ -18538,7 +18518,7 @@
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B852" s="0" t="n">
         <v>16.999</v>
@@ -18555,7 +18535,7 @@
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B853" s="0" t="n">
         <v>12.306474</v>
@@ -18572,7 +18552,7 @@
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B854" s="0" t="n">
         <v>25.576453</v>
@@ -18589,7 +18569,7 @@
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B855" s="0" t="n">
         <v>22.3225</v>
@@ -18606,7 +18586,7 @@
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B856" s="0" t="n">
         <v>11.015303</v>
@@ -18623,7 +18603,7 @@
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B857" s="0" t="n">
         <v>32.718561</v>
@@ -18640,7 +18620,7 @@
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B858" s="0" t="n">
         <v>26.696755</v>
@@ -18657,7 +18637,7 @@
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B859" s="0" t="n">
         <v>23.028258</v>
@@ -18674,7 +18654,7 @@
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B860" s="0" t="n">
         <v>28.402</v>
@@ -18691,7 +18671,7 @@
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B861" s="0" t="n">
         <v>23.171</v>
@@ -18708,7 +18688,7 @@
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B862" s="0" t="n">
         <v>30.32</v>
@@ -18725,7 +18705,7 @@
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B863" s="0" t="n">
         <v>23.835178</v>
@@ -18742,7 +18722,7 @@
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B864" s="0" t="n">
         <v>26.218792</v>
@@ -18759,7 +18739,7 @@
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B865" s="0" t="n">
         <v>11.021456</v>
@@ -18776,7 +18756,7 @@
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B866" s="0" t="n">
         <v>20.29305</v>
@@ -18793,7 +18773,7 @@
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>23.177</v>
@@ -18810,7 +18790,7 @@
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>22.725215</v>
@@ -18827,7 +18807,7 @@
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B869" s="0" t="n">
         <v>22.305972</v>
@@ -18844,7 +18824,7 @@
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B870" s="0" t="n">
         <v>26.227065</v>
@@ -18861,7 +18841,7 @@
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B871" s="0" t="n">
         <v>17.448618</v>
@@ -18878,7 +18858,7 @@
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B872" s="0" t="n">
         <v>16.507782</v>
@@ -18895,7 +18875,7 @@
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B873" s="0" t="n">
         <v>26.281254</v>
@@ -18912,7 +18892,7 @@
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B874" s="0" t="n">
         <v>28.621673</v>
@@ -18929,7 +18909,7 @@
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B875" s="0" t="n">
         <v>27.33176</v>
@@ -18963,7 +18943,7 @@
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B877" s="0" t="n">
         <v>21.244587</v>
@@ -18980,7 +18960,7 @@
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B878" s="0" t="n">
         <v>26.854367</v>
@@ -18997,7 +18977,7 @@
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B879" s="0" t="n">
         <v>21.146423</v>
@@ -19014,7 +18994,7 @@
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B880" s="0" t="n">
         <v>22.310278</v>
@@ -19031,7 +19011,7 @@
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B881" s="0" t="n">
         <v>28.584117</v>
@@ -19048,7 +19028,7 @@
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B882" s="0" t="n">
         <v>21.137953</v>
@@ -19065,7 +19045,7 @@
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B883" s="0" t="n">
         <v>22.308611</v>
@@ -19082,7 +19062,7 @@
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B884" s="0" t="n">
         <v>28.026439</v>
@@ -19099,7 +19079,7 @@
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B885" s="0" t="n">
         <v>30.884</v>
@@ -19116,7 +19096,7 @@
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B886" s="0" t="n">
         <v>28.549446</v>
@@ -19133,7 +19113,7 @@
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B887" s="0" t="n">
         <v>12.307332</v>
@@ -19150,7 +19130,7 @@
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B888" s="0" t="n">
         <v>22.711846</v>
@@ -19167,7 +19147,7 @@
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B889" s="0" t="n">
         <v>27.188554</v>
@@ -19184,7 +19164,7 @@
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B890" s="0" t="n">
         <v>25.672859</v>
@@ -19201,7 +19181,7 @@
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B891" s="0" t="n">
         <v>20.010789</v>
@@ -19218,7 +19198,7 @@
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B892" s="0" t="n">
         <v>18.972235</v>
@@ -19235,7 +19215,7 @@
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B893" s="0" t="n">
         <v>21.151447</v>
@@ -19252,7 +19232,7 @@
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B894" s="0" t="n">
         <v>28.4185</v>
@@ -19269,7 +19249,7 @@
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B895" s="0" t="n">
         <v>19.876543</v>
@@ -19286,7 +19266,7 @@
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B896" s="0" t="n">
         <v>26.926927</v>
@@ -19303,7 +19283,7 @@
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B897" s="0" t="n">
         <v>11.013111</v>
@@ -19320,7 +19300,7 @@
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B898" s="0" t="n">
         <v>18.524374</v>
@@ -19337,7 +19317,7 @@
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B899" s="0" t="n">
         <v>22.301389</v>
@@ -19354,7 +19334,7 @@
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B900" s="0" t="n">
         <v>18.51892</v>
@@ -19388,7 +19368,7 @@
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B902" s="0" t="n">
         <v>13.0382</v>
@@ -19405,7 +19385,7 @@
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B903" s="0" t="n">
         <v>27.193488</v>
@@ -19422,7 +19402,7 @@
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B904" s="0" t="n">
         <v>20.287159</v>
@@ -19439,7 +19419,7 @@
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>19.239183</v>
@@ -19456,7 +19436,7 @@
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B906" s="0" t="n">
         <v>20.293231</v>
@@ -19473,7 +19453,7 @@
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B907" s="0" t="n">
         <v>23.166789</v>
@@ -19490,7 +19470,7 @@
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B908" s="0" t="n">
         <v>20.022345</v>
@@ -19507,7 +19487,7 @@
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B909" s="0" t="n">
         <v>23.35782</v>
@@ -19524,7 +19504,7 @@
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B910" s="0" t="n">
         <v>23.832658</v>
@@ -19541,7 +19521,7 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B911" s="0" t="n">
         <v>23.1735</v>
@@ -19558,7 +19538,7 @@
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B912" s="0" t="n">
         <v>18.922</v>
@@ -19575,7 +19555,7 @@
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B913" s="0" t="n">
         <v>24.826689</v>
@@ -19592,7 +19572,7 @@
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B914" s="0" t="n">
         <v>32.70655</v>
@@ -19609,7 +19589,7 @@
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B915" s="0" t="n">
         <v>31.103405</v>
@@ -19626,7 +19606,7 @@
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B916" s="0" t="n">
         <v>28.4055</v>
@@ -19643,7 +19623,7 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B917" s="0" t="n">
         <v>19.017656</v>
@@ -19660,7 +19640,7 @@
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B918" s="0" t="n">
         <v>20.018456</v>
@@ -19677,7 +19657,7 @@
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B919" s="0" t="n">
         <v>26.295066</v>
@@ -19694,7 +19674,7 @@
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B920" s="0" t="n">
         <v>28.55616</v>
@@ -19711,7 +19691,7 @@
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B921" s="0" t="n">
         <v>11.012181</v>
@@ -19728,7 +19708,7 @@
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B922" s="0" t="n">
         <v>28.407</v>
@@ -19745,7 +19725,7 @@
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B923" s="0" t="n">
         <v>23.254982</v>
@@ -19762,7 +19742,7 @@
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B924" s="0" t="n">
         <v>23.034469</v>
@@ -19779,7 +19759,7 @@
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B925" s="0" t="n">
         <v>19.239674</v>
@@ -19796,7 +19776,7 @@
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B926" s="0" t="n">
         <v>23.837912</v>
@@ -19813,7 +19793,7 @@
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B927" s="0" t="n">
         <v>32.73204</v>
@@ -19830,7 +19810,7 @@
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B928" s="0" t="n">
         <v>21.137849</v>
@@ -19847,7 +19827,7 @@
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B929" s="0" t="n">
         <v>16.503089</v>
@@ -19864,7 +19844,7 @@
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B930" s="0" t="n">
         <v>26.280679</v>
@@ -19881,7 +19861,7 @@
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B931" s="0" t="n">
         <v>26.731874</v>
@@ -19898,7 +19878,7 @@
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B932" s="0" t="n">
         <v>23.170012</v>
@@ -19915,7 +19895,7 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B933" s="0" t="n">
         <v>26.455123</v>
@@ -19932,7 +19912,7 @@
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B934" s="0" t="n">
         <v>22.253999</v>
@@ -19949,7 +19929,7 @@
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B935" s="0" t="n">
         <v>31.6234</v>
@@ -19966,7 +19946,7 @@
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B936" s="0" t="n">
         <v>30.893</v>
@@ -19983,7 +19963,7 @@
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B937" s="0" t="n">
         <v>28.035821</v>
@@ -20000,7 +19980,7 @@
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B938" s="0" t="n">
         <v>23.036022</v>
@@ -20017,7 +19997,7 @@
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B939" s="0" t="n">
         <v>22.268901</v>
@@ -20034,7 +20014,7 @@
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B940" s="0" t="n">
         <v>26.220151</v>
@@ -20051,7 +20031,7 @@
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B941" s="0" t="n">
         <v>23.355743</v>
@@ -20068,7 +20048,7 @@
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B942" s="0" t="n">
         <v>32.72353</v>
@@ -20085,7 +20065,7 @@
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B943" s="0" t="n">
         <v>22.315833</v>
@@ -20102,7 +20082,7 @@
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B944" s="0" t="n">
         <v>21.197</v>
@@ -20119,7 +20099,7 @@
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B945" s="0" t="n">
         <v>22.710418</v>
@@ -20136,7 +20116,7 @@
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B946" s="0" t="n">
         <v>21.09502</v>
@@ -20153,7 +20133,7 @@
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B947" s="0" t="n">
         <v>30.3295</v>
@@ -20170,7 +20150,7 @@
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B948" s="0" t="n">
         <v>18.509502</v>
@@ -20187,7 +20167,7 @@
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B949" s="0" t="n">
         <v>26.851131</v>
@@ -20204,7 +20184,7 @@
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B950" s="0" t="n">
         <v>28.022672</v>
@@ -20221,7 +20201,7 @@
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B951" s="0" t="n">
         <v>23.036913</v>
@@ -20238,7 +20218,7 @@
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B952" s="0" t="n">
         <v>26.901528</v>
@@ -20255,7 +20235,7 @@
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B953" s="0" t="n">
         <v>26.896054</v>
@@ -20272,7 +20252,7 @@
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B954" s="0" t="n">
         <v>28.016438</v>
@@ -20289,7 +20269,7 @@
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B955" s="0" t="n">
         <v>23.181123</v>
@@ -20306,7 +20286,7 @@
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B956" s="0" t="n">
         <v>22.29658</v>
@@ -20323,7 +20303,7 @@
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B957" s="0" t="n">
         <v>30.3365</v>
@@ -20340,7 +20320,7 @@
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B958" s="0" t="n">
         <v>17.366</v>
@@ -20357,7 +20337,7 @@
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B959" s="0" t="n">
         <v>31.104144</v>
@@ -20374,7 +20354,7 @@
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B960" s="0" t="n">
         <v>12.992516</v>
@@ -20391,7 +20371,7 @@
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B961" s="0" t="n">
         <v>28.627393</v>
@@ -20408,7 +20388,7 @@
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B962" s="0" t="n">
         <v>19.883456</v>
@@ -20425,7 +20405,7 @@
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B963" s="0" t="n">
         <v>28.018475</v>
@@ -20442,7 +20422,7 @@
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B964" s="0" t="n">
         <v>22.719588</v>
@@ -20459,7 +20439,7 @@
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B965" s="0" t="n">
         <v>22.721618</v>
@@ -20476,7 +20456,7 @@
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B966" s="0" t="n">
         <v>16.515234</v>
@@ -20493,7 +20473,7 @@
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B967" s="0" t="n">
         <v>23.352732</v>
@@ -20510,7 +20490,7 @@
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B968" s="0" t="n">
         <v>28.63305</v>
@@ -20527,7 +20507,7 @@
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B969" s="0" t="n">
         <v>27.339458</v>
@@ -20544,7 +20524,7 @@
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B970" s="0" t="n">
         <v>23.262982</v>
@@ -20561,7 +20541,7 @@
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B971" s="0" t="n">
         <v>26.215118</v>
@@ -20578,7 +20558,7 @@
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B972" s="0" t="n">
         <v>26.290804</v>
@@ -20595,7 +20575,7 @@
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B973" s="0" t="n">
         <v>28.62531</v>
@@ -20612,7 +20592,7 @@
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B974" s="0" t="n">
         <v>19.216248</v>
@@ -20629,7 +20609,7 @@
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B975" s="0" t="n">
         <v>26.448489</v>
@@ -20646,7 +20626,7 @@
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B976" s="0" t="n">
         <v>28.4018</v>
@@ -20663,7 +20643,7 @@
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B977" s="0" t="n">
         <v>28.531509</v>
@@ -20680,7 +20660,7 @@
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B978" s="0" t="n">
         <v>25.676975</v>
@@ -20697,7 +20677,7 @@
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B979" s="0" t="n">
         <v>19.235899</v>
@@ -20714,7 +20694,7 @@
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B980" s="0" t="n">
         <v>27.331052</v>
@@ -20731,7 +20711,7 @@
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B981" s="0" t="n">
         <v>13.042345</v>
@@ -20748,7 +20728,7 @@
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B982" s="0" t="n">
         <v>23.351072</v>
@@ -20765,7 +20745,7 @@
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B983" s="0" t="n">
         <v>26.44999</v>
@@ -20782,7 +20762,7 @@
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B984" s="0" t="n">
         <v>23.021537</v>
@@ -20799,7 +20779,7 @@
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B985" s="0" t="n">
         <v>22.721222</v>
@@ -20816,7 +20796,7 @@
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B986" s="0" t="n">
         <v>12.307486</v>
@@ -20833,7 +20813,7 @@
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B987" s="0" t="n">
         <v>31.6412</v>
@@ -20850,7 +20830,7 @@
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B988" s="0" t="n">
         <v>23.351884</v>
@@ -20867,7 +20847,7 @@
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B989" s="0" t="n">
         <v>18.507788</v>
@@ -20884,7 +20864,7 @@
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B990" s="0" t="n">
         <v>31.627</v>
@@ -20901,7 +20881,7 @@
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B991" s="0" t="n">
         <v>27.193051</v>
@@ -20918,7 +20898,7 @@
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B992" s="0" t="n">
         <v>22.312634</v>
@@ -20935,7 +20915,7 @@
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B993" s="0" t="n">
         <v>25.67081</v>
@@ -20952,7 +20932,7 @@
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B994" s="0" t="n">
         <v>19.11968</v>
@@ -20969,7 +20949,7 @@
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B995" s="0" t="n">
         <v>22.307009</v>
@@ -20986,7 +20966,7 @@
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B996" s="0" t="n">
         <v>27.332411</v>
@@ -21003,7 +20983,7 @@
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B997" s="0" t="n">
         <v>12.973442</v>
@@ -21020,7 +21000,7 @@
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B998" s="0" t="n">
         <v>30.9015</v>
@@ -21037,7 +21017,7 @@
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B999" s="0" t="n">
         <v>22.565</v>
@@ -21054,7 +21034,7 @@
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1000" s="0" t="n">
         <v>23.668144</v>
@@ -21071,7 +21051,7 @@
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1001" s="0" t="n">
         <v>28.024362</v>
@@ -21088,7 +21068,7 @@
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1002" s="0" t="n">
         <v>24.810651</v>
@@ -21105,7 +21085,7 @@
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1003" s="0" t="n">
         <v>30.9045</v>
@@ -21122,7 +21102,7 @@
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1004" s="0" t="n">
         <v>28.657489</v>
@@ -21156,7 +21136,7 @@
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1006" s="0" t="n">
         <v>23.183345</v>
@@ -21173,7 +21153,7 @@
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1007" s="0" t="n">
         <v>19.880123</v>
@@ -21190,7 +21170,7 @@
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1008" s="0" t="n">
         <v>23.023245</v>
@@ -21207,7 +21187,7 @@
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1009" s="0" t="n">
         <v>16.9905</v>
@@ -21224,7 +21204,7 @@
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1010" s="0" t="n">
         <v>26.82202</v>
@@ -21241,7 +21221,7 @@
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1011" s="0" t="n">
         <v>26.925632</v>
@@ -21258,7 +21238,7 @@
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1012" s="0" t="n">
         <v>28.41</v>
@@ -21275,7 +21255,7 @@
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1013" s="0" t="n">
         <v>12.950743</v>
@@ -21292,7 +21272,7 @@
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1014" s="0" t="n">
         <v>26.449672</v>
@@ -21309,7 +21289,7 @@
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1015" s="0" t="n">
         <v>28.024908</v>
@@ -21326,7 +21306,7 @@
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1016" s="0" t="n">
         <v>23.248562</v>
@@ -21343,7 +21323,7 @@
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1017" s="0" t="n">
         <v>22.262345</v>
@@ -21360,7 +21340,7 @@
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1018" s="0" t="n">
         <v>26.72891</v>
@@ -21377,7 +21357,7 @@
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1019" s="0" t="n">
         <v>23.178</v>
@@ -21394,7 +21374,7 @@
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1020" s="0" t="n">
         <v>21.138457</v>
@@ -21411,7 +21391,7 @@
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1021" s="0" t="n">
         <v>20.010123</v>
@@ -21428,7 +21408,7 @@
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1022" s="0" t="n">
         <v>26.856529</v>
@@ -21445,7 +21425,7 @@
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1023" s="0" t="n">
         <v>32.73228</v>
@@ -21462,7 +21442,7 @@
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1024" s="0" t="n">
         <v>21.231451</v>
@@ -21479,7 +21459,7 @@
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1025" s="0" t="n">
         <v>22.270123</v>
@@ -21496,7 +21476,7 @@
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1026" s="0" t="n">
         <v>28.451336</v>
@@ -21505,7 +21485,7 @@
         <v>77.027179</v>
       </c>
       <c r="D1026" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1026" s="0" t="s">
         <v>207</v>
@@ -21513,7 +21493,7 @@
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1027" s="0" t="n">
         <v>28.449972</v>
@@ -21522,7 +21502,7 @@
         <v>77.035929</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1027" s="0" t="s">
         <v>207</v>
@@ -21530,7 +21510,7 @@
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1028" s="0" t="n">
         <v>28.453187</v>
@@ -21539,7 +21519,7 @@
         <v>77.06622</v>
       </c>
       <c r="D1028" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1028" s="0" t="s">
         <v>207</v>
@@ -21547,7 +21527,7 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1029" s="0" t="n">
         <v>28.455635</v>
@@ -21556,7 +21536,7 @@
         <v>77.042768</v>
       </c>
       <c r="D1029" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1029" s="0" t="s">
         <v>207</v>
@@ -21564,7 +21544,7 @@
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1030" s="0" t="n">
         <v>28.45235</v>
@@ -21573,7 +21553,7 @@
         <v>77.071365</v>
       </c>
       <c r="D1030" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1030" s="0" t="s">
         <v>207</v>
@@ -21581,7 +21561,7 @@
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1031" s="0" t="n">
         <v>28.442781</v>
@@ -21590,7 +21570,7 @@
         <v>77.06042</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1031" s="0" t="s">
         <v>207</v>
@@ -21598,7 +21578,7 @@
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1032" s="0" t="n">
         <v>28.45385</v>
@@ -21607,7 +21587,7 @@
         <v>77.02735</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1032" s="0" t="s">
         <v>207</v>
@@ -21615,7 +21595,7 @@
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1033" s="0" t="n">
         <v>28.46343</v>
@@ -21624,7 +21604,7 @@
         <v>77.03951</v>
       </c>
       <c r="D1033" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1033" s="0" t="s">
         <v>207</v>
@@ -21632,7 +21612,7 @@
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1034" s="0" t="n">
         <v>28.463042</v>
@@ -21641,7 +21621,7 @@
         <v>77.023124</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1034" s="0" t="s">
         <v>207</v>
@@ -21649,7 +21629,7 @@
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1035" s="0" t="n">
         <v>28.463212</v>
@@ -21658,7 +21638,7 @@
         <v>77.077382</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1035" s="0" t="s">
         <v>207</v>
@@ -21666,7 +21646,7 @@
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1036" s="0" t="n">
         <v>28.477938</v>
@@ -21675,7 +21655,7 @@
         <v>77.09547</v>
       </c>
       <c r="D1036" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1036" s="0" t="s">
         <v>207</v>
@@ -21683,7 +21663,7 @@
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1037" s="0" t="n">
         <v>28.479832</v>
@@ -21692,7 +21672,7 @@
         <v>77.078556</v>
       </c>
       <c r="D1037" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1037" s="0" t="s">
         <v>207</v>
@@ -21700,7 +21680,7 @@
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1038" s="0" t="n">
         <v>28.459417</v>
@@ -21709,7 +21689,7 @@
         <v>77.067832</v>
       </c>
       <c r="D1038" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1038" s="0" t="s">
         <v>207</v>
@@ -21717,7 +21697,7 @@
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1039" s="0" t="n">
         <v>28.458663</v>
@@ -21726,7 +21706,7 @@
         <v>77.037793</v>
       </c>
       <c r="D1039" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1039" s="0" t="s">
         <v>207</v>
@@ -21734,7 +21714,7 @@
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1040" s="0" t="n">
         <v>28.46373</v>
@@ -21743,7 +21723,7 @@
         <v>77.075529</v>
       </c>
       <c r="D1040" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1040" s="0" t="s">
         <v>207</v>
@@ -21751,7 +21731,7 @@
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1041" s="0" t="n">
         <v>28.450158</v>
@@ -21760,7 +21740,7 @@
         <v>77.033354</v>
       </c>
       <c r="D1041" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1041" s="0" t="s">
         <v>207</v>
@@ -21768,7 +21748,7 @@
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1042" s="0" t="n">
         <v>28.438663</v>
@@ -21777,7 +21757,7 @@
         <v>77.077489</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1042" s="0" t="s">
         <v>207</v>
@@ -21785,7 +21765,7 @@
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1043" s="0" t="n">
         <v>28.459885</v>
@@ -21794,7 +21774,7 @@
         <v>77.019036</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1043" s="0" t="s">
         <v>207</v>
@@ -21802,7 +21782,7 @@
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1044" s="0" t="n">
         <v>28.451758</v>
@@ -21811,7 +21791,7 @@
         <v>77.043205</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1044" s="0" t="s">
         <v>207</v>
@@ -21819,7 +21799,7 @@
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1045" s="0" t="n">
         <v>28.482129</v>
@@ -21828,7 +21808,7 @@
         <v>77.061156</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1045" s="0" t="s">
         <v>207</v>
@@ -21836,7 +21816,7 @@
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1046" s="0" t="n">
         <v>28.457102</v>
@@ -21845,7 +21825,7 @@
         <v>77.067853</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1046" s="0" t="s">
         <v>207</v>
@@ -21853,7 +21833,7 @@
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1047" s="0" t="n">
         <v>28.5676</v>
@@ -21862,7 +21842,7 @@
         <v>77.3403</v>
       </c>
       <c r="D1047" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1047" s="0" t="s">
         <v>16</v>
@@ -21870,7 +21850,7 @@
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1048" s="0" t="n">
         <v>28.5627</v>
@@ -21879,7 +21859,7 @@
         <v>77.336</v>
       </c>
       <c r="D1048" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1048" s="0" t="s">
         <v>16</v>
@@ -21887,7 +21867,7 @@
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1049" s="0" t="n">
         <v>28.5742</v>
@@ -21896,7 +21876,7 @@
         <v>77.3247</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1049" s="0" t="s">
         <v>16</v>
@@ -21904,7 +21884,7 @@
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1050" s="0" t="n">
         <v>28.5636</v>
@@ -21913,7 +21893,7 @@
         <v>77.3419</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1050" s="0" t="s">
         <v>16</v>
@@ -21921,7 +21901,7 @@
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1051" s="0" t="n">
         <v>28.5695</v>
@@ -21930,7 +21910,7 @@
         <v>77.3286</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1051" s="0" t="s">
         <v>16</v>
@@ -21938,7 +21918,7 @@
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1052" s="0" t="n">
         <v>28.5727</v>
@@ -21947,7 +21927,7 @@
         <v>77.3328</v>
       </c>
       <c r="D1052" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1052" s="0" t="s">
         <v>16</v>
@@ -21955,7 +21935,7 @@
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1053" s="0" t="n">
         <v>28.573</v>
@@ -21964,7 +21944,7 @@
         <v>77.3405</v>
       </c>
       <c r="D1053" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1053" s="0" t="s">
         <v>16</v>
@@ -21972,7 +21952,7 @@
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1054" s="0" t="n">
         <v>28.5632</v>
@@ -21981,7 +21961,7 @@
         <v>77.3323</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1054" s="0" t="s">
         <v>16</v>
@@ -21989,7 +21969,7 @@
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1055" s="0" t="n">
         <v>28.5671</v>
@@ -21998,7 +21978,7 @@
         <v>77.3208</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1055" s="0" t="s">
         <v>16</v>
@@ -22006,7 +21986,7 @@
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1056" s="0" t="n">
         <v>28.5685</v>
@@ -22015,7 +21995,7 @@
         <v>77.3256</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1056" s="0" t="s">
         <v>16</v>
@@ -22023,7 +22003,7 @@
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1057" s="0" t="n">
         <v>28.5714</v>
@@ -22032,7 +22012,7 @@
         <v>77.3203</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1057" s="0" t="s">
         <v>16</v>
@@ -22040,7 +22020,7 @@
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1058" s="0" t="n">
         <v>28.5648</v>
@@ -22049,7 +22029,7 @@
         <v>77.3222</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1058" s="0" t="s">
         <v>16</v>
@@ -22057,7 +22037,7 @@
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1059" s="0" t="n">
         <v>28.5644</v>
@@ -22066,7 +22046,7 @@
         <v>77.3354</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1059" s="0" t="s">
         <v>16</v>
@@ -22074,7 +22054,7 @@
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1060" s="0" t="n">
         <v>28.561</v>
@@ -22083,7 +22063,7 @@
         <v>77.3461</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1060" s="0" t="s">
         <v>16</v>
@@ -22091,7 +22071,7 @@
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1061" s="0" t="n">
         <v>28.5643</v>
@@ -22100,7 +22080,7 @@
         <v>77.3427</v>
       </c>
       <c r="D1061" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1061" s="0" t="s">
         <v>16</v>
@@ -22108,7 +22088,7 @@
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1062" s="0" t="n">
         <v>28.5691</v>
@@ -22117,7 +22097,7 @@
         <v>77.3289</v>
       </c>
       <c r="D1062" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1062" s="0" t="s">
         <v>16</v>
@@ -22125,7 +22105,7 @@
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1063" s="0" t="n">
         <v>28.5703</v>
@@ -22134,7 +22114,7 @@
         <v>77.3358</v>
       </c>
       <c r="D1063" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1063" s="0" t="s">
         <v>16</v>
@@ -22142,7 +22122,7 @@
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1064" s="0" t="n">
         <v>28.572</v>
@@ -22151,7 +22131,7 @@
         <v>77.3195</v>
       </c>
       <c r="D1064" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1064" s="0" t="s">
         <v>16</v>
@@ -22159,7 +22139,7 @@
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1065" s="0" t="n">
         <v>28.5735</v>
@@ -22168,7 +22148,7 @@
         <v>77.32</v>
       </c>
       <c r="D1065" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1065" s="0" t="s">
         <v>16</v>
@@ -22176,7 +22156,7 @@
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1066" s="0" t="n">
         <v>28.5593</v>
@@ -22185,7 +22165,7 @@
         <v>77.3349</v>
       </c>
       <c r="D1066" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1066" s="0" t="s">
         <v>16</v>
@@ -22193,7 +22173,7 @@
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1067" s="0" t="n">
         <v>28.9867</v>
@@ -22202,7 +22182,7 @@
         <v>77.7065</v>
       </c>
       <c r="D1067" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1067" s="0" t="s">
         <v>16</v>
@@ -22210,7 +22190,7 @@
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1068" s="0" t="n">
         <v>28.9888</v>
@@ -22219,7 +22199,7 @@
         <v>77.7112</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1068" s="0" t="s">
         <v>16</v>
@@ -22227,7 +22207,7 @@
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B1069" s="0" t="n">
         <v>28.9755</v>
@@ -22236,7 +22216,7 @@
         <v>77.7085</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1069" s="0" t="s">
         <v>16</v>
@@ -22244,7 +22224,7 @@
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1070" s="0" t="n">
         <v>28.9761</v>
@@ -22253,7 +22233,7 @@
         <v>77.7113</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1070" s="0" t="s">
         <v>16</v>
@@ -22261,7 +22241,7 @@
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1071" s="0" t="n">
         <v>28.9862</v>
@@ -22270,7 +22250,7 @@
         <v>77.7229</v>
       </c>
       <c r="D1071" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1071" s="0" t="s">
         <v>16</v>
@@ -22278,7 +22258,7 @@
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B1072" s="0" t="n">
         <v>28.9758</v>
@@ -22287,7 +22267,7 @@
         <v>77.7117</v>
       </c>
       <c r="D1072" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1072" s="0" t="s">
         <v>16</v>
@@ -22295,7 +22275,7 @@
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1073" s="0" t="n">
         <v>28.9796</v>
@@ -22304,7 +22284,7 @@
         <v>77.7104</v>
       </c>
       <c r="D1073" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1073" s="0" t="s">
         <v>16</v>
@@ -22312,7 +22292,7 @@
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1074" s="0" t="n">
         <v>28.9782</v>
@@ -22321,7 +22301,7 @@
         <v>77.7106</v>
       </c>
       <c r="D1074" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1074" s="0" t="s">
         <v>16</v>
@@ -22329,7 +22309,7 @@
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1075" s="0" t="n">
         <v>28.9743</v>
@@ -22338,7 +22318,7 @@
         <v>77.7012</v>
       </c>
       <c r="D1075" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1075" s="0" t="s">
         <v>16</v>
@@ -22346,7 +22326,7 @@
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1076" s="0" t="n">
         <v>28.9751</v>
@@ -22355,7 +22335,7 @@
         <v>77.7053</v>
       </c>
       <c r="D1076" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1076" s="0" t="s">
         <v>16</v>
@@ -22363,7 +22343,7 @@
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1077" s="0" t="n">
         <v>28.9705</v>
@@ -22372,7 +22352,7 @@
         <v>77.7118</v>
       </c>
       <c r="D1077" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1077" s="0" t="s">
         <v>16</v>
@@ -22380,7 +22360,7 @@
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1078" s="0" t="n">
         <v>28.9692</v>
@@ -22389,7 +22369,7 @@
         <v>77.7141</v>
       </c>
       <c r="D1078" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1078" s="0" t="s">
         <v>16</v>
@@ -22397,7 +22377,7 @@
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1079" s="0" t="n">
         <v>28.9723</v>
@@ -22406,7 +22386,7 @@
         <v>77.7132</v>
       </c>
       <c r="D1079" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1079" s="0" t="s">
         <v>16</v>
@@ -22414,7 +22394,7 @@
     </row>
     <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1080" s="0" t="n">
         <v>28.9847</v>
@@ -22423,7 +22403,7 @@
         <v>77.7214</v>
       </c>
       <c r="D1080" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1080" s="0" t="s">
         <v>16</v>
@@ -22431,7 +22411,7 @@
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1081" s="0" t="n">
         <v>28.9868</v>
@@ -22440,7 +22420,7 @@
         <v>77.7265</v>
       </c>
       <c r="D1081" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1081" s="0" t="s">
         <v>16</v>
@@ -22448,7 +22428,7 @@
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1082" s="0" t="n">
         <v>28.9779</v>
@@ -22457,7 +22437,7 @@
         <v>77.7066</v>
       </c>
       <c r="D1082" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1082" s="0" t="s">
         <v>16</v>
@@ -22465,7 +22445,7 @@
     </row>
     <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1083" s="0" t="n">
         <v>28.9642</v>
@@ -22474,7 +22454,7 @@
         <v>77.7246</v>
       </c>
       <c r="D1083" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1083" s="0" t="s">
         <v>16</v>
@@ -22482,7 +22462,7 @@
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1084" s="0" t="n">
         <v>28.9725</v>
@@ -22491,7 +22471,7 @@
         <v>77.7078</v>
       </c>
       <c r="D1084" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1084" s="0" t="s">
         <v>16</v>
@@ -22499,7 +22479,7 @@
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1085" s="0" t="n">
         <v>28.9822</v>
@@ -22508,7 +22488,7 @@
         <v>77.7114</v>
       </c>
       <c r="D1085" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1085" s="0" t="s">
         <v>16</v>
@@ -22516,7 +22496,7 @@
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1086" s="0" t="n">
         <v>28.9733</v>
@@ -22525,7 +22505,7 @@
         <v>77.7173</v>
       </c>
       <c r="D1086" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1086" s="0" t="s">
         <v>16</v>
@@ -22533,7 +22513,7 @@
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1087" s="0" t="n">
         <v>25.435302</v>
@@ -22542,7 +22522,7 @@
         <v>81.846311</v>
       </c>
       <c r="D1087" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1087" s="0" t="s">
         <v>16</v>
@@ -22550,7 +22530,7 @@
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1088" s="0" t="n">
         <v>25.433304</v>
@@ -22559,7 +22539,7 @@
         <v>81.846306</v>
       </c>
       <c r="D1088" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1088" s="0" t="s">
         <v>16</v>
@@ -22567,7 +22547,7 @@
     </row>
     <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1089" s="0" t="n">
         <v>25.421447</v>
@@ -22576,7 +22556,7 @@
         <v>81.835098</v>
       </c>
       <c r="D1089" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1089" s="0" t="s">
         <v>16</v>
@@ -22584,7 +22564,7 @@
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1090" s="0" t="n">
         <v>25.4289</v>
@@ -22593,7 +22573,7 @@
         <v>81.8442</v>
       </c>
       <c r="D1090" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1090" s="0" t="s">
         <v>16</v>
@@ -22601,7 +22581,7 @@
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1091" s="0" t="n">
         <v>25.411739</v>
@@ -22610,7 +22590,7 @@
         <v>81.831779</v>
       </c>
       <c r="D1091" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1091" s="0" t="s">
         <v>16</v>
@@ -22618,7 +22598,7 @@
     </row>
     <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1092" s="0" t="n">
         <v>25.452256</v>
@@ -22627,7 +22607,7 @@
         <v>81.840404</v>
       </c>
       <c r="D1092" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1092" s="0" t="s">
         <v>16</v>
@@ -22635,7 +22615,7 @@
     </row>
     <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1093" s="0" t="n">
         <v>25.457003</v>
@@ -22644,7 +22624,7 @@
         <v>81.83529</v>
       </c>
       <c r="D1093" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1093" s="0" t="s">
         <v>16</v>
@@ -22652,7 +22632,7 @@
     </row>
     <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1094" s="0" t="n">
         <v>25.429674</v>
@@ -22661,7 +22641,7 @@
         <v>81.824348</v>
       </c>
       <c r="D1094" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1094" s="0" t="s">
         <v>16</v>
@@ -22669,7 +22649,7 @@
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1095" s="0" t="n">
         <v>25.4445</v>
@@ -22678,7 +22658,7 @@
         <v>81.8367</v>
       </c>
       <c r="D1095" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1095" s="0" t="s">
         <v>16</v>
@@ -22686,7 +22666,7 @@
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1096" s="0" t="n">
         <v>25.45371</v>
@@ -22695,7 +22675,7 @@
         <v>81.82588</v>
       </c>
       <c r="D1096" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1096" s="0" t="s">
         <v>16</v>
@@ -22703,7 +22683,7 @@
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1097" s="0" t="n">
         <v>25.443012</v>
@@ -22712,7 +22692,7 @@
         <v>81.832674</v>
       </c>
       <c r="D1097" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1097" s="0" t="s">
         <v>16</v>
@@ -22720,7 +22700,7 @@
     </row>
     <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1098" s="0" t="n">
         <v>25.425627</v>
@@ -22729,7 +22709,7 @@
         <v>81.846092</v>
       </c>
       <c r="D1098" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1098" s="0" t="s">
         <v>16</v>
@@ -22737,7 +22717,7 @@
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1099" s="0" t="n">
         <v>25.4125</v>
@@ -22746,7 +22726,7 @@
         <v>81.8229</v>
       </c>
       <c r="D1099" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1099" s="0" t="s">
         <v>16</v>
@@ -22754,7 +22734,7 @@
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1100" s="0" t="n">
         <v>25.418343</v>
@@ -22763,7 +22743,7 @@
         <v>81.797119</v>
       </c>
       <c r="D1100" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1100" s="0" t="s">
         <v>16</v>
@@ -22771,7 +22751,7 @@
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1101" s="0" t="n">
         <v>25.434888</v>
@@ -22780,7 +22760,7 @@
         <v>81.829975</v>
       </c>
       <c r="D1101" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1101" s="0" t="s">
         <v>16</v>
@@ -22788,7 +22768,7 @@
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1102" s="0" t="n">
         <v>25.4236</v>
@@ -22797,7 +22777,7 @@
         <v>81.8139</v>
       </c>
       <c r="D1102" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1102" s="0" t="s">
         <v>16</v>
@@ -22805,7 +22785,7 @@
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1103" s="0" t="n">
         <v>25.4423</v>
@@ -22814,7 +22794,7 @@
         <v>81.8261</v>
       </c>
       <c r="D1103" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1103" s="0" t="s">
         <v>16</v>
@@ -22822,7 +22802,7 @@
     </row>
     <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="0" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1104" s="0" t="n">
         <v>25.4136</v>
@@ -22831,7 +22811,7 @@
         <v>81.822</v>
       </c>
       <c r="D1104" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1104" s="0" t="s">
         <v>16</v>
@@ -22839,7 +22819,7 @@
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1105" s="0" t="n">
         <v>25.4528</v>
@@ -22848,7 +22828,7 @@
         <v>81.8382</v>
       </c>
       <c r="D1105" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1105" s="0" t="s">
         <v>16</v>
@@ -22856,7 +22836,7 @@
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1106" s="0" t="n">
         <v>25.4376</v>
@@ -22865,7 +22845,7 @@
         <v>81.8351</v>
       </c>
       <c r="D1106" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1106" s="0" t="s">
         <v>16</v>
@@ -22873,7 +22853,7 @@
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1107" s="0" t="n">
         <v>25.4246</v>
@@ -22882,7 +22862,7 @@
         <v>81.8424</v>
       </c>
       <c r="D1107" s="0" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E1107" s="0" t="s">
         <v>16</v>
@@ -22890,7 +22870,7 @@
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1108" s="0" t="n">
         <v>28.367</v>
@@ -22899,7 +22879,7 @@
         <v>79.4187</v>
       </c>
       <c r="D1108" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1108" s="0" t="s">
         <v>16</v>
@@ -22907,7 +22887,7 @@
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1109" s="0" t="n">
         <v>28.3691</v>
@@ -22916,7 +22896,7 @@
         <v>79.4319</v>
       </c>
       <c r="D1109" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1109" s="0" t="s">
         <v>16</v>
@@ -22924,7 +22904,7 @@
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="0" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1110" s="0" t="n">
         <v>28.3645</v>
@@ -22933,7 +22913,7 @@
         <v>79.421</v>
       </c>
       <c r="D1110" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1110" s="0" t="s">
         <v>16</v>
@@ -22941,7 +22921,7 @@
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="0" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1111" s="0" t="n">
         <v>28.3667</v>
@@ -22950,7 +22930,7 @@
         <v>79.4215</v>
       </c>
       <c r="D1111" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1111" s="0" t="s">
         <v>16</v>
@@ -22958,7 +22938,7 @@
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="0" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1112" s="0" t="n">
         <v>28.3682</v>
@@ -22967,7 +22947,7 @@
         <v>79.418</v>
       </c>
       <c r="D1112" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1112" s="0" t="s">
         <v>16</v>
@@ -22975,7 +22955,7 @@
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="0" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1113" s="0" t="n">
         <v>28.3728</v>
@@ -22984,7 +22964,7 @@
         <v>79.426</v>
       </c>
       <c r="D1113" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1113" s="0" t="s">
         <v>16</v>
@@ -22992,7 +22972,7 @@
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1114" s="0" t="n">
         <v>28.3651</v>
@@ -23001,7 +22981,7 @@
         <v>79.4125</v>
       </c>
       <c r="D1114" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1114" s="0" t="s">
         <v>16</v>
@@ -23009,7 +22989,7 @@
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1115" s="0" t="n">
         <v>28.3708</v>
@@ -23018,7 +22998,7 @@
         <v>79.4222</v>
       </c>
       <c r="D1115" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1115" s="0" t="s">
         <v>16</v>
@@ -23026,7 +23006,7 @@
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1116" s="0" t="n">
         <v>28.3719</v>
@@ -23035,7 +23015,7 @@
         <v>79.4197</v>
       </c>
       <c r="D1116" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1116" s="0" t="s">
         <v>16</v>
@@ -23043,7 +23023,7 @@
     </row>
     <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="0" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1117" s="0" t="n">
         <v>28.3683</v>
@@ -23052,7 +23032,7 @@
         <v>79.4176</v>
       </c>
       <c r="D1117" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1117" s="0" t="s">
         <v>16</v>
@@ -23060,7 +23040,7 @@
     </row>
     <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="0" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1118" s="0" t="n">
         <v>28.3669</v>
@@ -23069,7 +23049,7 @@
         <v>79.4267</v>
       </c>
       <c r="D1118" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1118" s="0" t="s">
         <v>16</v>
@@ -23077,7 +23057,7 @@
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="0" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1119" s="0" t="n">
         <v>28.3627</v>
@@ -23086,7 +23066,7 @@
         <v>79.4145</v>
       </c>
       <c r="D1119" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1119" s="0" t="s">
         <v>16</v>
@@ -23094,7 +23074,7 @@
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1120" s="0" t="n">
         <v>28.3688</v>
@@ -23103,7 +23083,7 @@
         <v>79.4234</v>
       </c>
       <c r="D1120" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1120" s="0" t="s">
         <v>16</v>
@@ -23111,7 +23091,7 @@
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1121" s="0" t="n">
         <v>28.3681</v>
@@ -23120,7 +23100,7 @@
         <v>79.4188</v>
       </c>
       <c r="D1121" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1121" s="0" t="s">
         <v>16</v>
@@ -23128,7 +23108,7 @@
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1122" s="0" t="n">
         <v>28.3655</v>
@@ -23137,7 +23117,7 @@
         <v>79.4218</v>
       </c>
       <c r="D1122" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1122" s="0" t="s">
         <v>16</v>
@@ -23145,7 +23125,7 @@
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1123" s="0" t="n">
         <v>28.3705</v>
@@ -23154,7 +23134,7 @@
         <v>79.4192</v>
       </c>
       <c r="D1123" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1123" s="0" t="s">
         <v>16</v>
@@ -23162,7 +23142,7 @@
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1124" s="0" t="n">
         <v>28.3684</v>
@@ -23171,7 +23151,7 @@
         <v>79.4243</v>
       </c>
       <c r="D1124" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1124" s="0" t="s">
         <v>16</v>
@@ -23179,7 +23159,7 @@
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1125" s="0" t="n">
         <v>28.3678</v>
@@ -23188,7 +23168,7 @@
         <v>79.4206</v>
       </c>
       <c r="D1125" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1125" s="0" t="s">
         <v>16</v>
@@ -23196,7 +23176,7 @@
     </row>
     <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1126" s="0" t="n">
         <v>28.3696</v>
@@ -23205,7 +23185,7 @@
         <v>79.4278</v>
       </c>
       <c r="D1126" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1126" s="0" t="s">
         <v>16</v>
@@ -23213,7 +23193,7 @@
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1127" s="0" t="n">
         <v>28.3659</v>
@@ -23222,7 +23202,7 @@
         <v>79.423</v>
       </c>
       <c r="D1127" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E1127" s="0" t="s">
         <v>16</v>
@@ -23230,7 +23210,7 @@
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1128" s="0" t="n">
         <v>23.182153</v>
@@ -23239,7 +23219,7 @@
         <v>75.778855</v>
       </c>
       <c r="D1128" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1128" s="0" t="s">
         <v>68</v>
@@ -23247,7 +23227,7 @@
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1129" s="0" t="n">
         <v>23.183947</v>
@@ -23256,7 +23236,7 @@
         <v>75.774168</v>
       </c>
       <c r="D1129" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1129" s="0" t="s">
         <v>68</v>
@@ -23264,7 +23244,7 @@
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1130" s="0" t="n">
         <v>23.182298</v>
@@ -23273,7 +23253,7 @@
         <v>75.783151</v>
       </c>
       <c r="D1130" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1130" s="0" t="s">
         <v>68</v>
@@ -23281,7 +23261,7 @@
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1131" s="0" t="n">
         <v>23.188184</v>
@@ -23290,7 +23270,7 @@
         <v>75.781352</v>
       </c>
       <c r="D1131" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1131" s="0" t="s">
         <v>68</v>
@@ -23298,7 +23278,7 @@
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1132" s="0" t="n">
         <v>23.182606</v>
@@ -23307,7 +23287,7 @@
         <v>75.774989</v>
       </c>
       <c r="D1132" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1132" s="0" t="s">
         <v>68</v>
@@ -23315,7 +23295,7 @@
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1133" s="0" t="n">
         <v>23.183184</v>
@@ -23324,7 +23304,7 @@
         <v>75.77231</v>
       </c>
       <c r="D1133" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1133" s="0" t="s">
         <v>68</v>
@@ -23332,7 +23312,7 @@
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1134" s="0" t="n">
         <v>23.185027</v>
@@ -23341,7 +23321,7 @@
         <v>75.779529</v>
       </c>
       <c r="D1134" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1134" s="0" t="s">
         <v>68</v>
@@ -23349,7 +23329,7 @@
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1135" s="0" t="n">
         <v>23.180098</v>
@@ -23358,7 +23338,7 @@
         <v>75.774328</v>
       </c>
       <c r="D1135" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1135" s="0" t="s">
         <v>68</v>
@@ -23366,7 +23346,7 @@
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1136" s="0" t="n">
         <v>23.186107</v>
@@ -23375,7 +23355,7 @@
         <v>75.781871</v>
       </c>
       <c r="D1136" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1136" s="0" t="s">
         <v>68</v>
@@ -23383,7 +23363,7 @@
     </row>
     <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1137" s="0" t="n">
         <v>23.187933</v>
@@ -23392,7 +23372,7 @@
         <v>75.783972</v>
       </c>
       <c r="D1137" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1137" s="0" t="s">
         <v>68</v>
@@ -23400,7 +23380,7 @@
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1138" s="0" t="n">
         <v>23.183358</v>
@@ -23409,7 +23389,7 @@
         <v>75.779978</v>
       </c>
       <c r="D1138" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1138" s="0" t="s">
         <v>68</v>
@@ -23417,7 +23397,7 @@
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1139" s="0" t="n">
         <v>23.181556</v>
@@ -23426,7 +23406,7 @@
         <v>75.780707</v>
       </c>
       <c r="D1139" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1139" s="0" t="s">
         <v>68</v>
@@ -23434,7 +23414,7 @@
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1140" s="0" t="n">
         <v>23.184522</v>
@@ -23443,7 +23423,7 @@
         <v>75.774422</v>
       </c>
       <c r="D1140" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1140" s="0" t="s">
         <v>68</v>
@@ -23451,7 +23431,7 @@
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1141" s="0" t="n">
         <v>23.18105</v>
@@ -23460,7 +23440,7 @@
         <v>75.779065</v>
       </c>
       <c r="D1141" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1141" s="0" t="s">
         <v>68</v>
@@ -23468,7 +23448,7 @@
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1142" s="0" t="n">
         <v>23.18834</v>
@@ -23477,7 +23457,7 @@
         <v>75.779084</v>
       </c>
       <c r="D1142" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1142" s="0" t="s">
         <v>68</v>
@@ -23485,7 +23465,7 @@
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1143" s="0" t="n">
         <v>23.186794</v>
@@ -23494,7 +23474,7 @@
         <v>75.776745</v>
       </c>
       <c r="D1143" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1143" s="0" t="s">
         <v>68</v>
@@ -23502,7 +23482,7 @@
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1144" s="0" t="n">
         <v>23.182737</v>
@@ -23511,7 +23491,7 @@
         <v>75.779158</v>
       </c>
       <c r="D1144" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1144" s="0" t="s">
         <v>68</v>
@@ -23519,7 +23499,7 @@
     </row>
     <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1145" s="0" t="n">
         <v>23.180738</v>
@@ -23528,7 +23508,7 @@
         <v>75.772823</v>
       </c>
       <c r="D1145" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1145" s="0" t="s">
         <v>68</v>
@@ -23536,7 +23516,7 @@
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1146" s="0" t="n">
         <v>23.186455</v>
@@ -23545,7 +23525,7 @@
         <v>75.776256</v>
       </c>
       <c r="D1146" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1146" s="0" t="s">
         <v>68</v>
@@ -23553,7 +23533,7 @@
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1147" s="0" t="n">
         <v>23.182504</v>
@@ -23562,7 +23542,7 @@
         <v>75.778239</v>
       </c>
       <c r="D1147" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1147" s="0" t="s">
         <v>68</v>
@@ -23570,7 +23550,7 @@
     </row>
     <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1148" s="0" t="n">
         <v>23.184909</v>
@@ -23579,7 +23559,7 @@
         <v>75.777036</v>
       </c>
       <c r="D1148" s="0" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E1148" s="0" t="s">
         <v>68</v>
@@ -23587,7 +23567,7 @@
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1149" s="0" t="n">
         <v>23.470951</v>
@@ -23596,7 +23576,7 @@
         <v>78.736748</v>
       </c>
       <c r="D1149" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1149" s="0" t="s">
         <v>68</v>
@@ -23604,7 +23584,7 @@
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1150" s="0" t="n">
         <v>23.46761</v>
@@ -23613,7 +23593,7 @@
         <v>78.735814</v>
       </c>
       <c r="D1150" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1150" s="0" t="s">
         <v>68</v>
@@ -23621,7 +23601,7 @@
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1151" s="0" t="n">
         <v>23.47025</v>
@@ -23630,7 +23610,7 @@
         <v>78.731382</v>
       </c>
       <c r="D1151" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1151" s="0" t="s">
         <v>68</v>
@@ -23638,7 +23618,7 @@
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="0" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1152" s="0" t="n">
         <v>23.466702</v>
@@ -23647,7 +23627,7 @@
         <v>78.737295</v>
       </c>
       <c r="D1152" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1152" s="0" t="s">
         <v>68</v>
@@ -23655,7 +23635,7 @@
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1153" s="0" t="n">
         <v>23.469781</v>
@@ -23664,7 +23644,7 @@
         <v>78.730098</v>
       </c>
       <c r="D1153" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1153" s="0" t="s">
         <v>68</v>
@@ -23672,7 +23652,7 @@
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1154" s="0" t="n">
         <v>23.470962</v>
@@ -23681,7 +23661,7 @@
         <v>78.736585</v>
       </c>
       <c r="D1154" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1154" s="0" t="s">
         <v>68</v>
@@ -23689,7 +23669,7 @@
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1155" s="0" t="n">
         <v>23.469055</v>
@@ -23698,7 +23678,7 @@
         <v>78.733725</v>
       </c>
       <c r="D1155" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1155" s="0" t="s">
         <v>68</v>
@@ -23706,7 +23686,7 @@
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1156" s="0" t="n">
         <v>23.467951</v>
@@ -23715,7 +23695,7 @@
         <v>78.735252</v>
       </c>
       <c r="D1156" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1156" s="0" t="s">
         <v>68</v>
@@ -23723,7 +23703,7 @@
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1157" s="0" t="n">
         <v>23.470297</v>
@@ -23732,7 +23712,7 @@
         <v>78.730555</v>
       </c>
       <c r="D1157" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1157" s="0" t="s">
         <v>68</v>
@@ -23740,7 +23720,7 @@
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1158" s="0" t="n">
         <v>23.469444</v>
@@ -23749,7 +23729,7 @@
         <v>78.734439</v>
       </c>
       <c r="D1158" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1158" s="0" t="s">
         <v>68</v>
@@ -23757,7 +23737,7 @@
     </row>
     <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="0" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1159" s="0" t="n">
         <v>23.469056</v>
@@ -23766,7 +23746,7 @@
         <v>78.731652</v>
       </c>
       <c r="D1159" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1159" s="0" t="s">
         <v>68</v>
@@ -23774,7 +23754,7 @@
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1160" s="0" t="n">
         <v>23.467594</v>
@@ -23783,7 +23763,7 @@
         <v>78.733596</v>
       </c>
       <c r="D1160" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1160" s="0" t="s">
         <v>68</v>
@@ -23791,7 +23771,7 @@
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1161" s="0" t="n">
         <v>23.470098</v>
@@ -23800,7 +23780,7 @@
         <v>78.735783</v>
       </c>
       <c r="D1161" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1161" s="0" t="s">
         <v>68</v>
@@ -23808,7 +23788,7 @@
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1162" s="0" t="n">
         <v>23.471387</v>
@@ -23817,7 +23797,7 @@
         <v>78.733377</v>
       </c>
       <c r="D1162" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1162" s="0" t="s">
         <v>68</v>
@@ -23825,7 +23805,7 @@
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1163" s="0" t="n">
         <v>23.468645</v>
@@ -23834,7 +23814,7 @@
         <v>78.737804</v>
       </c>
       <c r="D1163" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1163" s="0" t="s">
         <v>68</v>
@@ -23842,7 +23822,7 @@
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="0" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1164" s="0" t="n">
         <v>23.467402</v>
@@ -23851,7 +23831,7 @@
         <v>78.73153</v>
       </c>
       <c r="D1164" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1164" s="0" t="s">
         <v>68</v>
@@ -23859,7 +23839,7 @@
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="0" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1165" s="0" t="n">
         <v>23.466383</v>
@@ -23868,7 +23848,7 @@
         <v>78.734578</v>
       </c>
       <c r="D1165" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1165" s="0" t="s">
         <v>68</v>
@@ -23876,7 +23856,7 @@
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="0" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1166" s="0" t="n">
         <v>23.469716</v>
@@ -23885,7 +23865,7 @@
         <v>78.732759</v>
       </c>
       <c r="D1166" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1166" s="0" t="s">
         <v>68</v>
@@ -23893,7 +23873,7 @@
     </row>
     <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1167" s="0" t="n">
         <v>23.470918</v>
@@ -23902,7 +23882,7 @@
         <v>78.730807</v>
       </c>
       <c r="D1167" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1167" s="0" t="s">
         <v>68</v>
@@ -23910,7 +23890,7 @@
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="0" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1168" s="0" t="n">
         <v>23.471348</v>
@@ -23919,7 +23899,7 @@
         <v>78.737247</v>
       </c>
       <c r="D1168" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1168" s="0" t="s">
         <v>68</v>
@@ -23927,7 +23907,7 @@
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="0" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1169" s="0" t="n">
         <v>25.617601</v>
@@ -23936,15 +23916,15 @@
         <v>85.135918</v>
       </c>
       <c r="D1169" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1169" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="0" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1170" s="0" t="n">
         <v>25.613698</v>
@@ -23953,15 +23933,15 @@
         <v>85.138049</v>
       </c>
       <c r="D1170" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1170" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="0" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1171" s="0" t="n">
         <v>25.608597</v>
@@ -23970,15 +23950,15 @@
         <v>85.139451</v>
       </c>
       <c r="D1171" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1171" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1172" s="0" t="n">
         <v>25.611496</v>
@@ -23987,15 +23967,15 @@
         <v>85.14174</v>
       </c>
       <c r="D1172" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1172" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1173" s="0" t="n">
         <v>25.597147</v>
@@ -24004,15 +23984,15 @@
         <v>85.142856</v>
       </c>
       <c r="D1173" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1173" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="0" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1174" s="0" t="n">
         <v>25.615285</v>
@@ -24021,15 +24001,15 @@
         <v>85.128429</v>
       </c>
       <c r="D1174" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1174" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1175" s="0" t="n">
         <v>25.610734</v>
@@ -24038,15 +24018,15 @@
         <v>85.137843</v>
       </c>
       <c r="D1175" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1175" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="0" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1176" s="0" t="n">
         <v>25.608215</v>
@@ -24055,15 +24035,15 @@
         <v>85.137732</v>
       </c>
       <c r="D1176" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1176" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="0" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1177" s="0" t="n">
         <v>25.637739</v>
@@ -24072,15 +24052,15 @@
         <v>85.135331</v>
       </c>
       <c r="D1177" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1177" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="0" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1178" s="0" t="n">
         <v>25.595834</v>
@@ -24089,15 +24069,15 @@
         <v>85.137161</v>
       </c>
       <c r="D1178" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1178" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1179" s="0" t="n">
         <v>25.615895</v>
@@ -24106,15 +24086,15 @@
         <v>85.132156</v>
       </c>
       <c r="D1179" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1179" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="0" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1180" s="0" t="n">
         <v>25.613077</v>
@@ -24123,15 +24103,15 @@
         <v>85.129089</v>
       </c>
       <c r="D1180" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1180" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="0" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1181" s="0" t="n">
         <v>25.609473</v>
@@ -24140,15 +24120,15 @@
         <v>85.132742</v>
       </c>
       <c r="D1181" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1181" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1182" s="0" t="n">
         <v>25.606508</v>
@@ -24157,15 +24137,15 @@
         <v>85.128892</v>
       </c>
       <c r="D1182" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1182" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1183" s="0" t="n">
         <v>25.620437</v>
@@ -24174,15 +24154,15 @@
         <v>85.139828</v>
       </c>
       <c r="D1183" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1183" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="0" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1184" s="0" t="n">
         <v>25.614809</v>
@@ -24191,15 +24171,15 @@
         <v>85.139169</v>
       </c>
       <c r="D1184" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1184" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="0" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1185" s="0" t="n">
         <v>25.616299</v>
@@ -24208,15 +24188,15 @@
         <v>85.128674</v>
       </c>
       <c r="D1185" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1185" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="0" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1186" s="0" t="n">
         <v>25.597546</v>
@@ -24225,15 +24205,15 @@
         <v>85.110645</v>
       </c>
       <c r="D1186" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1186" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="0" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1187" s="0" t="n">
         <v>25.614671</v>
@@ -24242,15 +24222,15 @@
         <v>85.134079</v>
       </c>
       <c r="D1187" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1187" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="0" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1188" s="0" t="n">
         <v>25.617824</v>
@@ -24259,15 +24239,15 @@
         <v>85.129825</v>
       </c>
       <c r="D1188" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1188" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1189" s="0" t="n">
         <v>25.59446</v>
@@ -24276,15 +24256,15 @@
         <v>85.156817</v>
       </c>
       <c r="D1189" s="0" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E1189" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1190" s="0" t="n">
         <v>24.796217</v>
@@ -24293,15 +24273,15 @@
         <v>84.991532</v>
       </c>
       <c r="D1190" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1190" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1191" s="0" t="n">
         <v>24.797396</v>
@@ -24310,15 +24290,15 @@
         <v>84.991833</v>
       </c>
       <c r="D1191" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1191" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="0" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1192" s="0" t="n">
         <v>24.793056</v>
@@ -24327,15 +24307,15 @@
         <v>84.998912</v>
       </c>
       <c r="D1192" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1192" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="0" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1193" s="0" t="n">
         <v>24.794221</v>
@@ -24344,15 +24324,15 @@
         <v>84.989452</v>
       </c>
       <c r="D1193" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1193" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="0" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1194" s="0" t="n">
         <v>24.795712</v>
@@ -24361,15 +24341,15 @@
         <v>84.990319</v>
       </c>
       <c r="D1194" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1194" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="0" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1195" s="0" t="n">
         <v>24.794872</v>
@@ -24378,15 +24358,15 @@
         <v>84.992781</v>
       </c>
       <c r="D1195" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1195" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="0" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1196" s="0" t="n">
         <v>24.796973</v>
@@ -24395,15 +24375,15 @@
         <v>84.990215</v>
       </c>
       <c r="D1196" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1196" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="0" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1197" s="0" t="n">
         <v>24.795091</v>
@@ -24412,15 +24392,15 @@
         <v>84.987413</v>
       </c>
       <c r="D1197" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1197" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1198" s="0" t="n">
         <v>24.795621</v>
@@ -24429,15 +24409,15 @@
         <v>84.991071</v>
       </c>
       <c r="D1198" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1198" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="0" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1199" s="0" t="n">
         <v>24.794523</v>
@@ -24446,15 +24426,15 @@
         <v>84.99254</v>
       </c>
       <c r="D1199" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1199" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="0" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1200" s="0" t="n">
         <v>24.795497</v>
@@ -24463,15 +24443,15 @@
         <v>84.988741</v>
       </c>
       <c r="D1200" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1200" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="0" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1201" s="0" t="n">
         <v>24.79682</v>
@@ -24480,15 +24460,15 @@
         <v>84.994309</v>
       </c>
       <c r="D1201" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1201" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="0" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1202" s="0" t="n">
         <v>24.796322</v>
@@ -24497,15 +24477,15 @@
         <v>84.991074</v>
       </c>
       <c r="D1202" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1202" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1203" s="0" t="n">
         <v>24.79398</v>
@@ -24514,15 +24494,15 @@
         <v>84.99028</v>
       </c>
       <c r="D1203" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1203" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="0" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1204" s="0" t="n">
         <v>24.794946</v>
@@ -24531,15 +24511,15 @@
         <v>84.992681</v>
       </c>
       <c r="D1204" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1204" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="0" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1205" s="0" t="n">
         <v>24.795858</v>
@@ -24548,15 +24528,15 @@
         <v>84.991967</v>
       </c>
       <c r="D1205" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1205" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="0" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1206" s="0" t="n">
         <v>24.794503</v>
@@ -24565,15 +24545,15 @@
         <v>84.989252</v>
       </c>
       <c r="D1206" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1206" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="0" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1207" s="0" t="n">
         <v>24.796039</v>
@@ -24582,15 +24562,15 @@
         <v>84.992215</v>
       </c>
       <c r="D1207" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1207" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="0" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1208" s="0" t="n">
         <v>24.794177</v>
@@ -24599,15 +24579,15 @@
         <v>84.988913</v>
       </c>
       <c r="D1208" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1208" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="0" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1209" s="0" t="n">
         <v>24.796606</v>
@@ -24616,15 +24596,15 @@
         <v>84.991438</v>
       </c>
       <c r="D1209" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1209" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="0" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1210" s="0" t="n">
         <v>24.795239</v>
@@ -24633,15 +24613,15 @@
         <v>84.98932</v>
       </c>
       <c r="D1210" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1210" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="0" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1211" s="0" t="n">
         <v>24.795731</v>
@@ -24650,15 +24630,15 @@
         <v>84.990488</v>
       </c>
       <c r="D1211" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1211" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="0" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1212" s="0" t="n">
         <v>24.796278</v>
@@ -24667,15 +24647,15 @@
         <v>84.992369</v>
       </c>
       <c r="D1212" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1212" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="0" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1213" s="0" t="n">
         <v>24.794826</v>
@@ -24684,15 +24664,15 @@
         <v>84.987226</v>
       </c>
       <c r="D1213" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1213" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="0" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1214" s="0" t="n">
         <v>24.794608</v>
@@ -24701,15 +24681,15 @@
         <v>84.988234</v>
       </c>
       <c r="D1214" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1214" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1215" s="0" t="n">
         <v>24.795095</v>
@@ -24718,15 +24698,15 @@
         <v>84.989918</v>
       </c>
       <c r="D1215" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1215" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1216" s="0" t="n">
         <v>24.795329</v>
@@ -24735,15 +24715,15 @@
         <v>84.991245</v>
       </c>
       <c r="D1216" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1216" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="0" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1217" s="0" t="n">
         <v>24.794322</v>
@@ -24752,15 +24732,15 @@
         <v>84.992812</v>
       </c>
       <c r="D1217" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1217" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="0" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1218" s="0" t="n">
         <v>24.795647</v>
@@ -24769,15 +24749,15 @@
         <v>84.990592</v>
       </c>
       <c r="D1218" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1218" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="0" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1219" s="0" t="n">
         <v>24.796512</v>
@@ -24786,15 +24766,15 @@
         <v>84.991073</v>
       </c>
       <c r="D1219" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1219" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="0" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1220" s="0" t="n">
         <v>24.795015</v>
@@ -24803,15 +24783,15 @@
         <v>84.990954</v>
       </c>
       <c r="D1220" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1220" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1221" s="0" t="n">
         <v>24.796224</v>
@@ -24820,15 +24800,15 @@
         <v>84.990726</v>
       </c>
       <c r="D1221" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1221" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="0" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1222" s="0" t="n">
         <v>24.794643</v>
@@ -24837,15 +24817,15 @@
         <v>84.991425</v>
       </c>
       <c r="D1222" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1222" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="0" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1223" s="0" t="n">
         <v>24.795296</v>
@@ -24854,15 +24834,15 @@
         <v>84.988941</v>
       </c>
       <c r="D1223" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1223" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1224" s="0" t="n">
         <v>24.795117</v>
@@ -24871,15 +24851,15 @@
         <v>84.991964</v>
       </c>
       <c r="D1224" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1224" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="0" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1225" s="0" t="n">
         <v>24.796007</v>
@@ -24888,15 +24868,15 @@
         <v>84.99038</v>
       </c>
       <c r="D1225" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1225" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1226" s="0" t="n">
         <v>24.795978</v>
@@ -24905,15 +24885,15 @@
         <v>84.989606</v>
       </c>
       <c r="D1226" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1226" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1227" s="0" t="n">
         <v>24.794668</v>
@@ -24922,15 +24902,15 @@
         <v>84.992055</v>
       </c>
       <c r="D1227" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1227" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1228" s="0" t="n">
         <v>24.796264</v>
@@ -24939,15 +24919,15 @@
         <v>84.992619</v>
       </c>
       <c r="D1228" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1228" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1229" s="0" t="n">
         <v>24.794981</v>
@@ -24956,15 +24936,15 @@
         <v>84.991297</v>
       </c>
       <c r="D1229" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1229" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1230" s="0" t="n">
         <v>24.796045</v>
@@ -24973,10 +24953,10 @@
         <v>84.990094</v>
       </c>
       <c r="D1230" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1230" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
